--- a/bias_variance_tradeoffs.xlsx
+++ b/bias_variance_tradeoffs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/GitHub/Notes-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCD832-3276-0A4F-B968-31566EFA28E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8AE05-244E-1D44-A29B-426CE7FBF6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{61E0ED4C-6CC3-0D45-859B-7203B6A1D391}"/>
   </bookViews>
@@ -69,13 +69,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -89,6 +82,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -99,7 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,36 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -238,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,31 +225,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -307,8 +282,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5759450" cy="622300"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -352,6 +327,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -467,7 +443,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -540,8 +516,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5759450" cy="622300"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -585,6 +561,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -736,7 +713,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -809,8 +786,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5759450" cy="1028700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -889,7 +866,7 @@
                       <m:begChr m:val="["/>
                       <m:endChr m:val="]"/>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                        <a:rPr lang="en-US" sz="1800" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="bg1"/>
                           </a:solidFill>
@@ -901,7 +878,7 @@
                       <m:sSup>
                         <m:sSupPr>
                           <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                            <a:rPr lang="en-US" sz="1800" b="0" i="1">
                               <a:solidFill>
                                 <a:schemeClr val="bg1"/>
                               </a:solidFill>
@@ -1090,7 +1067,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1482,7 +1459,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,266 +1468,266 @@
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-    </row>
-    <row r="3" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="9"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="M20" s="11" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="M20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="10"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="1"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="10"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="19"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="1"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="10"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
